--- a/tagged.xlsx
+++ b/tagged.xlsx
@@ -34,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +42,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,113 +423,208 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nama File Label Img Hari /Bulan / Tahun</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Nomor</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Nama Foto</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Bacaan Plat Kiri</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Pelat Tertutup Kirim</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Pelat Tidak Jelas Kiri</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Bacaan Pelat Kanan</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Pelat Tertutup Kanan</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Pelat Tidak Jelas Kanan</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Xml ADA / TIDAK_ADA</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Jam PAGI / MALAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>20221218133806_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="5">
+      <c r="B5" t="inlineStr">
         <is>
           <t>20221218133816_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="6">
+      <c r="B6" t="inlineStr">
         <is>
           <t>20221218133825_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="7">
+      <c r="B7" t="inlineStr">
         <is>
           <t>20221218133829_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t>20221218133834_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="B9" t="inlineStr">
         <is>
           <t>20221218133839_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="B10" t="inlineStr">
         <is>
           <t>20221218133845_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="11">
+      <c r="B11" t="inlineStr">
         <is>
           <t>20221218133851_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="B12" t="inlineStr">
         <is>
           <t>20221218133856_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="B13" t="inlineStr">
         <is>
           <t>20221218133901_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t>20221218133905_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="B15" t="inlineStr">
         <is>
           <t>20221218133910_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="B16" t="inlineStr">
         <is>
           <t>20221218133921_Full.png</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="B17" t="inlineStr">
         <is>
           <t>20221218133927_Full.png</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tagged.xlsx
+++ b/tagged.xlsx
@@ -524,102 +524,256 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <t>20221218133806_Full.png</t>
         </is>
       </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>20221218133816_Full.png</t>
         </is>
       </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>20221218133825_Full.png</t>
         </is>
       </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>20221218133829_Full.png</t>
         </is>
       </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>20221218133834_Full.png</t>
         </is>
       </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>20221218133839_Full.png</t>
         </is>
       </c>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>20221218133845_Full.png</t>
         </is>
       </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>20221218133851_Full.png</t>
         </is>
       </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>20221218133856_Full.png</t>
         </is>
       </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>20221218133901_Full.png</t>
         </is>
       </c>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>20221218133905_Full.png</t>
         </is>
       </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>20221218133910_Full.png</t>
         </is>
       </c>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>20221218133921_Full.png</t>
         </is>
       </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>20221218133927_Full.png</t>
         </is>
       </c>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tagged.xlsx
+++ b/tagged.xlsx
@@ -539,7 +539,11 @@
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
       <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -557,7 +561,11 @@
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -575,7 +583,11 @@
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -593,7 +605,11 @@
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -611,7 +627,11 @@
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
       <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -629,7 +649,11 @@
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -647,7 +671,11 @@
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
       <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -665,7 +693,11 @@
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="n"/>
       <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -683,7 +715,11 @@
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
       <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -701,7 +737,11 @@
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -719,7 +759,11 @@
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
       <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -737,7 +781,11 @@
       <c r="G15" s="2" t="n"/>
       <c r="H15" s="2" t="n"/>
       <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -755,7 +803,11 @@
       <c r="G16" s="2" t="n"/>
       <c r="H16" s="2" t="n"/>
       <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -773,7 +825,11 @@
       <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="n"/>
       <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>PAGI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
